--- a/public/templates/SmallPelagicLogbook.template.xlsx
+++ b/public/templates/SmallPelagicLogbook.template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <workbookProtection workbookPassword="C470" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Logbook" sheetId="1" r:id="rId1"/>
@@ -2831,7 +2831,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3707,7 +3707,7 @@
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P34">
       <formula1>0</formula1>
-      <formula2>10000000</formula2>
+      <formula2>1000000000</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:O34">
       <formula1>0</formula1>
